--- a/data/lab error list_v_20250308.xlsx
+++ b/data/lab error list_v_20250308.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hikmetcancubukcu/Desktop/lab error finder/eklenecekler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8373E6F6-4A65-784A-AF3D-823255E3FF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A10968-0697-7949-8807-A0C0E20FFA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="2180" windowWidth="30240" windowHeight="17580" xr2:uid="{C48E7245-0A71-394A-ACF5-15D76E6EE581}"/>
+    <workbookView xWindow="16660" yWindow="500" windowWidth="21560" windowHeight="19660" xr2:uid="{C48E7245-0A71-394A-ACF5-15D76E6EE581}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa1!$A$1:$E$433</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa1!$A$1:$E$456</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="859">
   <si>
     <t>Laboratory errors</t>
   </si>
@@ -2558,9 +2558,6 @@
     <t>Theophylline</t>
   </si>
   <si>
-    <t>Doxycycline;</t>
-  </si>
-  <si>
     <t>Intralipid</t>
   </si>
   <si>
@@ -2583,9 +2580,6 @@
   </si>
   <si>
     <t>Digitoxin (serum)</t>
-  </si>
-  <si>
-    <t>Rifampcin</t>
   </si>
   <si>
     <t>Acetaminophen</t>
@@ -3191,8 +3185,8 @@
   <dimension ref="A1:E456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C456" sqref="C456"/>
+      <pane ySplit="1" topLeftCell="A415" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A415" sqref="A415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8600,7 +8594,7 @@
         <v>4</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>793</v>
@@ -8614,7 +8608,7 @@
         <v>4</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>794</v>
@@ -8850,10 +8844,10 @@
         <v>809</v>
       </c>
       <c r="C400" s="14" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D400" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E400" s="11"/>
     </row>
@@ -8865,235 +8859,235 @@
         <v>809</v>
       </c>
       <c r="C401" s="14" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D401" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E401" s="11"/>
     </row>
     <row r="402" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="11" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="B402" s="11" t="s">
         <v>340</v>
       </c>
       <c r="C402" s="14" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D402" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E402" s="11"/>
     </row>
     <row r="403" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B403" s="11" t="s">
         <v>329</v>
       </c>
       <c r="C403" s="11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D403" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E403" s="11"/>
     </row>
     <row r="404" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B404" s="11" t="s">
         <v>329</v>
       </c>
       <c r="C404" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D404" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E404" s="11"/>
     </row>
     <row r="405" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B405" s="11" t="s">
         <v>331</v>
       </c>
       <c r="C405" s="11" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D405" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E405" s="11"/>
     </row>
     <row r="406" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B406" s="11" t="s">
         <v>503</v>
       </c>
       <c r="C406" s="11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D406" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E406" s="11"/>
     </row>
     <row r="407" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B407" s="11" t="s">
         <v>503</v>
       </c>
       <c r="C407" s="11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D407" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E407" s="11"/>
     </row>
     <row r="408" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B408" s="11" t="s">
         <v>334</v>
       </c>
       <c r="C408" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D408" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E408" s="11"/>
     </row>
     <row r="409" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B409" s="11" t="s">
         <v>334</v>
       </c>
       <c r="C409" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D409" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E409" s="11"/>
     </row>
     <row r="410" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B410" s="11" t="s">
         <v>334</v>
       </c>
       <c r="C410" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D410" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E410" s="11"/>
     </row>
     <row r="411" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B411" s="11" t="s">
         <v>473</v>
       </c>
       <c r="C411" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D411" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E411" s="11"/>
     </row>
     <row r="412" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B412" s="11" t="s">
         <v>473</v>
       </c>
       <c r="C412" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D412" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E412" s="11"/>
     </row>
     <row r="413" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B413" s="11" t="s">
         <v>473</v>
       </c>
       <c r="C413" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D413" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E413" s="11"/>
     </row>
     <row r="414" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B414" s="11" t="s">
         <v>473</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D414" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E414" s="11"/>
     </row>
     <row r="415" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A415" s="11" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B415" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D415" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E415" s="11"/>
     </row>
     <row r="416" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B416" s="11" t="s">
         <v>470</v>
       </c>
       <c r="C416" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D416" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E416" s="11"/>
     </row>
@@ -9105,25 +9099,25 @@
         <v>470</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D417" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E417" s="11"/>
     </row>
     <row r="418" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B418" s="11" t="s">
         <v>470</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D418" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E418" s="11"/>
     </row>
@@ -9135,220 +9129,220 @@
         <v>470</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D419" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E419" s="11"/>
     </row>
     <row r="420" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="11" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B420" s="11" t="s">
         <v>474</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D420" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E420" s="11"/>
     </row>
     <row r="421" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B421" s="11" t="s">
         <v>474</v>
       </c>
       <c r="C421" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D421" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E421" s="11"/>
     </row>
     <row r="422" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B422" s="11" t="s">
         <v>474</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D422" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E422" s="11"/>
     </row>
     <row r="423" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B423" s="11" t="s">
         <v>474</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D423" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E423" s="11"/>
     </row>
     <row r="424" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B424" s="11" t="s">
         <v>474</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D424" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E424" s="11"/>
     </row>
     <row r="425" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B425" s="11" t="s">
         <v>474</v>
       </c>
       <c r="C425" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D425" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E425" s="11"/>
     </row>
     <row r="426" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A426" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B426" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C426" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D426" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E426" s="11"/>
     </row>
     <row r="427" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B427" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C427" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D427" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E427" s="11"/>
     </row>
     <row r="428" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A428" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B428" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D428" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E428" s="11"/>
     </row>
     <row r="429" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B429" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D429" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E429" s="11"/>
     </row>
     <row r="430" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="B430" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="B430" s="11" t="s">
-        <v>825</v>
-      </c>
       <c r="C430" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D430" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E430" s="11"/>
     </row>
     <row r="431" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B431" s="11" t="s">
         <v>469</v>
       </c>
       <c r="C431" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D431" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E431" s="11"/>
     </row>
     <row r="432" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B432" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C432" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D432" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E432" s="11"/>
     </row>
     <row r="433" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B433" s="11" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C433" s="11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D433" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E433" s="11"/>
     </row>
@@ -9360,345 +9354,345 @@
         <v>411</v>
       </c>
       <c r="C434" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D434" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E434" s="11"/>
     </row>
     <row r="435" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B435" s="11" t="s">
         <v>411</v>
       </c>
       <c r="C435" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D435" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E435" s="11"/>
     </row>
     <row r="436" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="11" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B436" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C436" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D436" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E436" s="11"/>
     </row>
     <row r="437" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="11" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B437" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C437" s="11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D437" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E437" s="11"/>
     </row>
     <row r="438" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B438" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C438" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D438" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E438" s="11"/>
     </row>
     <row r="439" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B439" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D439" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E439" s="11"/>
     </row>
     <row r="440" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B440" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C440" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D440" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E440" s="11"/>
     </row>
     <row r="441" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B441" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D441" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E441" s="11"/>
     </row>
     <row r="442" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B442" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C442" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D442" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E442" s="11"/>
     </row>
     <row r="443" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B443" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C443" s="11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D443" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E443" s="11"/>
     </row>
     <row r="444" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B444" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C444" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D444" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E444" s="11"/>
     </row>
     <row r="445" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B445" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C445" s="11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D445" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E445" s="11"/>
     </row>
     <row r="446" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A446" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B446" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C446" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D446" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E446" s="11"/>
     </row>
     <row r="447" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B447" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C447" s="11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D447" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E447" s="11"/>
     </row>
     <row r="448" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="11" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B448" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C448" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D448" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E448" s="11"/>
     </row>
     <row r="449" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" s="11" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B449" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C449" s="11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D449" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E449" s="11"/>
     </row>
     <row r="450" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A450" s="11" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B450" s="11" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C450" s="11" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D450" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E450" s="11"/>
     </row>
     <row r="451" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="B451" s="11" t="s">
         <v>832</v>
       </c>
-      <c r="B451" s="11" t="s">
-        <v>834</v>
-      </c>
       <c r="C451" s="11" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D451" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E451" s="11"/>
     </row>
     <row r="452" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A452" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B452" s="11" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C452" s="11" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D452" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E452" s="11"/>
     </row>
     <row r="453" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B453" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C453" s="11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D453" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E453" s="11"/>
     </row>
     <row r="454" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A454" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B454" s="11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C454" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="D454" s="11" t="s">
         <v>858</v>
-      </c>
-      <c r="D454" s="11" t="s">
-        <v>860</v>
       </c>
       <c r="E454" s="11"/>
     </row>
     <row r="455" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B455" s="11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C455" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D455" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E455" s="11"/>
     </row>
     <row r="456" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A456" s="11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B456" s="11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C456" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D456" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E456" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E433" xr:uid="{23D1046F-DFA9-CA42-8C5D-C103BB244FD4}"/>
+  <autoFilter ref="A1:E456" xr:uid="{23D1046F-DFA9-CA42-8C5D-C103BB244FD4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>